--- a/Summary_k_Ozone.xlsx
+++ b/Summary_k_Ozone.xlsx
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Enterovirus B</t>
+          <t>Enterovirus betacoxsackie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Enterovirus C</t>
+          <t>Enterovirus coxsackiepol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human mastadenovirus C</t>
+          <t>Mastadenovirus caesari</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
